--- a/Companies/Finance - Investment/Bajaj Finserv Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Finance - Investment/Bajaj Finserv Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>341.24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>671.33</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>595.21</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>671.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>341.24</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>671.33</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>334.336</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>341.24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>671.33</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>595.21</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>671.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>341.24</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>671.33</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>31.06</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>334.336</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>34.54</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22.52</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>30.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>30.53</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>34.54</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>29.75</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>0.83</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.83</t>
         </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.806</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>19.24</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14.36</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>13.37</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>14.964</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>296.56</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>624.44</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-10.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-6.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>540.60</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-6.65</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-10.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>624.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>296.56</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>624.4400000000001</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-10.87</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>288.816</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>8.06</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.45</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>18.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>15.60</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>15.84</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>312.16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>642.53</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>548.66</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>642.53</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>312.16</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>642.53</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>304.656</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>312.16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>642.53</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>548.66</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>642.53</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>312.16</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>642.53</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>304.656</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>312.16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>642.53</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>548.66</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>642.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>312.16</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>642.53</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>304.656</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>157.45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>145.15</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>157.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>79.11</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>157.45</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>77.45</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>233.05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>485.08</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>403.51</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>485.08</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>233.05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>485.08</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>227.206</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>233.05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>485.08</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>403.51</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>485.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>233.05</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>485.08</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>227.206</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>159.14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>159.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>159.26</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>159.26</t>
         </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>159.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>159.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>79.57</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>159.26</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>79.56999999999999</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>143.274</v>
       </c>
     </row>
     <row r="18"/>
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>4.046</v>
       </c>
     </row>
     <row r="21">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>5.05</v>
       </c>
     </row>
     <row r="22"/>
@@ -1184,37 +1017,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>4.046</v>
       </c>
     </row>
     <row r="25">
@@ -1225,37 +1049,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>5.05</v>
       </c>
     </row>
     <row r="26"/>
